--- a/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-races-count.xlsx
+++ b/kgstats-generated/2024.11.11/stats/xlsx/voc-referats-top-by-races-count.xlsx
@@ -92,7 +92,7 @@
     <t>Eremite</t>
   </si>
   <si>
-    <t>17 ч. 3 мин. 24 сек.</t>
+    <t>17 ч. 03 мин. 24 сек.</t>
   </si>
   <si>
     <t>7</t>
@@ -101,7 +101,7 @@
     <t>Supersonic</t>
   </si>
   <si>
-    <t>20 ч. 7 мин. 45 сек.</t>
+    <t>20 ч. 07 мин. 45 сек.</t>
   </si>
   <si>
     <t>8</t>
@@ -119,7 +119,7 @@
     <t>xks</t>
   </si>
   <si>
-    <t>19 ч. 27 мин. 8 сек.</t>
+    <t>19 ч. 27 мин. 08 сек.</t>
   </si>
   <si>
     <t>10</t>
@@ -137,7 +137,7 @@
     <t>Dobby_</t>
   </si>
   <si>
-    <t>21 ч. 3 мин. 58 сек.</t>
+    <t>21 ч. 03 мин. 58 сек.</t>
   </si>
   <si>
     <t>12</t>
@@ -164,7 +164,7 @@
     <t>Аромат</t>
   </si>
   <si>
-    <t>18 ч. 0 мин. 21 сек.</t>
+    <t>18 ч. 00 мин. 21 сек.</t>
   </si>
   <si>
     <t>15</t>
@@ -173,7 +173,7 @@
     <t>Сима44</t>
   </si>
   <si>
-    <t>21 ч. 8 мин. 50 сек.</t>
+    <t>21 ч. 08 мин. 50 сек.</t>
   </si>
   <si>
     <t>16</t>
@@ -227,7 +227,7 @@
     <t>Кот_Черныш</t>
   </si>
   <si>
-    <t>14 ч. 12 мин. 2 сек.</t>
+    <t>14 ч. 12 мин. 02 сек.</t>
   </si>
   <si>
     <t>22–23</t>
@@ -236,13 +236,13 @@
     <t>Clara_Oswald</t>
   </si>
   <si>
-    <t>13 ч. 58 мин. 2 сек.</t>
+    <t>13 ч. 58 мин. 02 сек.</t>
   </si>
   <si>
     <t>EVjGeNiX</t>
   </si>
   <si>
-    <t>11 ч. 5 мин. 14 сек.</t>
+    <t>11 ч. 05 мин. 14 сек.</t>
   </si>
   <si>
     <t>24</t>
@@ -260,7 +260,7 @@
     <t>ofirinka</t>
   </si>
   <si>
-    <t>16 ч. 51 мин. 7 сек.</t>
+    <t>16 ч. 51 мин. 07 сек.</t>
   </si>
   <si>
     <t>26</t>
@@ -287,7 +287,7 @@
     <t>proximo39</t>
   </si>
   <si>
-    <t>10 ч. 8 мин. 38 сек.</t>
+    <t>10 ч. 08 мин. 38 сек.</t>
   </si>
   <si>
     <t>29</t>
@@ -296,7 +296,7 @@
     <t>Лень</t>
   </si>
   <si>
-    <t>8 ч. 50 мин. 5 сек.</t>
+    <t>8 ч. 50 мин. 05 сек.</t>
   </si>
   <si>
     <t>30</t>
@@ -314,7 +314,7 @@
     <t>SamArKin</t>
   </si>
   <si>
-    <t>11 ч. 12 мин. 4 сек.</t>
+    <t>11 ч. 12 мин. 04 сек.</t>
   </si>
   <si>
     <t>32</t>
@@ -332,7 +332,7 @@
     <t>egor_2000</t>
   </si>
   <si>
-    <t>26 ч. 9 мин. 10 сек.</t>
+    <t>26 ч. 09 мин. 10 сек.</t>
   </si>
   <si>
     <t>Disobey</t>
@@ -383,7 +383,7 @@
     <t>blurr</t>
   </si>
   <si>
-    <t>9 ч. 45 мин. 4 сек.</t>
+    <t>9 ч. 45 мин. 04 сек.</t>
   </si>
   <si>
     <t>40</t>
@@ -428,7 +428,7 @@
     <t>fishca</t>
   </si>
   <si>
-    <t>9 ч. 9 мин. 7 сек.</t>
+    <t>9 ч. 09 мин. 07 сек.</t>
   </si>
   <si>
     <t>45</t>
@@ -437,7 +437,7 @@
     <t>Vi1993</t>
   </si>
   <si>
-    <t>11 ч. 39 мин. 5 сек.</t>
+    <t>11 ч. 39 мин. 05 сек.</t>
   </si>
   <si>
     <t>46</t>
@@ -482,7 +482,7 @@
     <t>Korner</t>
   </si>
   <si>
-    <t>7 ч. 43 мин. 4 сек.</t>
+    <t>7 ч. 43 мин. 04 сек.</t>
   </si>
   <si>
     <t>51</t>
@@ -500,7 +500,7 @@
     <t>Leshiy239</t>
   </si>
   <si>
-    <t>7 ч. 39 мин. 7 сек.</t>
+    <t>7 ч. 39 мин. 07 сек.</t>
   </si>
   <si>
     <t>53</t>
@@ -509,7 +509,7 @@
     <t>flethentel</t>
   </si>
   <si>
-    <t>6 ч. 27 мин. 4 сек.</t>
+    <t>6 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>54</t>
@@ -542,7 +542,7 @@
     <t>Бэтмен</t>
   </si>
   <si>
-    <t>7 ч. 33 мин. 7 сек.</t>
+    <t>7 ч. 33 мин. 07 сек.</t>
   </si>
   <si>
     <t>58</t>
@@ -560,7 +560,7 @@
     <t>KOSTYA410</t>
   </si>
   <si>
-    <t>5 ч. 56 мин. 1 сек.</t>
+    <t>5 ч. 56 мин. 01 сек.</t>
   </si>
   <si>
     <t>60</t>
@@ -596,7 +596,7 @@
     <t>Мирный</t>
   </si>
   <si>
-    <t>7 ч. 57 мин. 0 сек.</t>
+    <t>7 ч. 57 мин. 00 сек.</t>
   </si>
   <si>
     <t>64–66</t>
@@ -605,7 +605,7 @@
     <t>Софья_Хуланова</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 39 сек.</t>
+    <t>6 ч. 00 мин. 39 сек.</t>
   </si>
   <si>
     <t>Катушка</t>
@@ -617,7 +617,7 @@
     <t>Speed_King</t>
   </si>
   <si>
-    <t>10 ч. 9 мин. 12 сек.</t>
+    <t>10 ч. 09 мин. 12 сек.</t>
   </si>
   <si>
     <t>67</t>
@@ -662,7 +662,7 @@
     <t>Luxmaster</t>
   </si>
   <si>
-    <t>6 ч. 47 мин. 8 сек.</t>
+    <t>6 ч. 47 мин. 08 сек.</t>
   </si>
   <si>
     <t>72</t>
@@ -689,7 +689,7 @@
     <t>Креслоноцец</t>
   </si>
   <si>
-    <t>10 ч. 27 мин. 4 сек.</t>
+    <t>10 ч. 27 мин. 04 сек.</t>
   </si>
   <si>
     <t>75</t>
@@ -734,7 +734,7 @@
     <t>xcislav</t>
   </si>
   <si>
-    <t>6 ч. 0 мин. 57 сек.</t>
+    <t>6 ч. 00 мин. 57 сек.</t>
   </si>
   <si>
     <t>80</t>
@@ -752,7 +752,7 @@
     <t>dsdt</t>
   </si>
   <si>
-    <t>5 ч. 9 мин. 48 сек.</t>
+    <t>5 ч. 09 мин. 48 сек.</t>
   </si>
   <si>
     <t>82–83</t>
@@ -821,7 +821,7 @@
     <t>zeliks</t>
   </si>
   <si>
-    <t>10 ч. 5 мин. 17 сек.</t>
+    <t>10 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>90–91</t>
@@ -845,7 +845,7 @@
     <t>ToNick</t>
   </si>
   <si>
-    <t>4 ч. 7 мин. 54 сек.</t>
+    <t>4 ч. 07 мин. 54 сек.</t>
   </si>
   <si>
     <t>93</t>
@@ -899,7 +899,7 @@
     <t>Radius</t>
   </si>
   <si>
-    <t>7 ч. 6 мин. 48 сек.</t>
+    <t>7 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>99</t>
@@ -917,7 +917,7 @@
     <t>emercomisha</t>
   </si>
   <si>
-    <t>6 ч. 57 мин. 4 сек.</t>
+    <t>6 ч. 57 мин. 04 сек.</t>
   </si>
   <si>
     <t>Kml</t>
@@ -965,7 +965,7 @@
     <t>-FORCE-</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 47 сек.</t>
+    <t>5 ч. 01 мин. 47 сек.</t>
   </si>
   <si>
     <t>Static</t>
@@ -980,7 +980,7 @@
     <t>Fleabag</t>
   </si>
   <si>
-    <t>9 ч. 14 мин. 7 сек.</t>
+    <t>9 ч. 14 мин. 07 сек.</t>
   </si>
   <si>
     <t>109</t>
@@ -989,7 +989,7 @@
     <t>hangling</t>
   </si>
   <si>
-    <t>8 ч. 56 мин. 6 сек.</t>
+    <t>8 ч. 56 мин. 06 сек.</t>
   </si>
   <si>
     <t>110–112</t>
@@ -1004,13 +1004,13 @@
     <t>Savitri</t>
   </si>
   <si>
-    <t>10 ч. 1 мин. 46 сек.</t>
+    <t>10 ч. 01 мин. 46 сек.</t>
   </si>
   <si>
     <t>El_Mago</t>
   </si>
   <si>
-    <t>6 ч. 7 мин. 21 сек.</t>
+    <t>6 ч. 07 мин. 21 сек.</t>
   </si>
   <si>
     <t>113</t>
@@ -1019,7 +1019,7 @@
     <t>ТРЕКК</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 15 сек.</t>
+    <t>5 ч. 02 мин. 15 сек.</t>
   </si>
   <si>
     <t>114</t>
@@ -1127,7 +1127,7 @@
     <t>InsydeR</t>
   </si>
   <si>
-    <t>4 ч. 51 мин. 5 сек.</t>
+    <t>4 ч. 51 мин. 05 сек.</t>
   </si>
   <si>
     <t>128</t>
@@ -1169,7 +1169,7 @@
     <t>HellBoy33</t>
   </si>
   <si>
-    <t>5 ч. 24 мин. 3 сек.</t>
+    <t>5 ч. 24 мин. 03 сек.</t>
   </si>
   <si>
     <t>smol67</t>
@@ -1199,7 +1199,7 @@
     <t>Evariste</t>
   </si>
   <si>
-    <t>6 ч. 8 мин. 25 сек.</t>
+    <t>6 ч. 08 мин. 25 сек.</t>
   </si>
   <si>
     <t>138</t>
@@ -1217,7 +1217,7 @@
     <t>Yarook</t>
   </si>
   <si>
-    <t>8 ч. 26 мин. 1 сек.</t>
+    <t>8 ч. 26 мин. 01 сек.</t>
   </si>
   <si>
     <t>Oxanette</t>
@@ -1241,7 +1241,7 @@
     <t>Игрок3</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 17 сек.</t>
+    <t>5 ч. 02 мин. 17 сек.</t>
   </si>
   <si>
     <t>hrenovaya_klava</t>
@@ -1256,7 +1256,7 @@
     <t>Sergey_Ch</t>
   </si>
   <si>
-    <t>4 ч. 30 мин. 5 сек.</t>
+    <t>4 ч. 30 мин. 05 сек.</t>
   </si>
   <si>
     <t>145</t>
@@ -1274,7 +1274,7 @@
     <t>Corleone99</t>
   </si>
   <si>
-    <t>3 ч. 15 мин. 2 сек.</t>
+    <t>3 ч. 15 мин. 02 сек.</t>
   </si>
   <si>
     <t>147</t>
@@ -1316,7 +1316,7 @@
     <t>Ллисса</t>
   </si>
   <si>
-    <t>4 ч. 21 мин. 8 сек.</t>
+    <t>4 ч. 21 мин. 08 сек.</t>
   </si>
   <si>
     <t>152</t>
@@ -1325,7 +1325,7 @@
     <t>ufcntkkj</t>
   </si>
   <si>
-    <t>7 ч. 34 мин. 2 сек.</t>
+    <t>7 ч. 34 мин. 02 сек.</t>
   </si>
   <si>
     <t>153–154</t>
@@ -1334,7 +1334,7 @@
     <t>ДядяСаша</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 46 сек.</t>
+    <t>4 ч. 06 мин. 46 сек.</t>
   </si>
   <si>
     <t>Макрушин</t>
@@ -1349,7 +1349,7 @@
     <t>Гектор</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 2 сек.</t>
+    <t>3 ч. 29 мин. 02 сек.</t>
   </si>
   <si>
     <t>156</t>
@@ -1409,7 +1409,7 @@
     <t>daktule</t>
   </si>
   <si>
-    <t>5 ч. 59 мин. 2 сек.</t>
+    <t>5 ч. 59 мин. 02 сек.</t>
   </si>
   <si>
     <t>tarak</t>
@@ -1439,7 +1439,7 @@
     <t>Ilya666</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 9 сек.</t>
+    <t>4 ч. 05 мин. 09 сек.</t>
   </si>
   <si>
     <t>167–168</t>
@@ -1454,7 +1454,7 @@
     <t>Графит</t>
   </si>
   <si>
-    <t>6 ч. 29 мин. 0 сек.</t>
+    <t>6 ч. 29 мин. 00 сек.</t>
   </si>
   <si>
     <t>169–170</t>
@@ -1469,7 +1469,7 @@
     <t>Fox_creative</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 50 сек.</t>
+    <t>4 ч. 00 мин. 50 сек.</t>
   </si>
   <si>
     <t>171</t>
@@ -1496,7 +1496,7 @@
     <t>s1c</t>
   </si>
   <si>
-    <t>8 ч. 6 мин. 31 сек.</t>
+    <t>8 ч. 06 мин. 31 сек.</t>
   </si>
   <si>
     <t>kakuzux</t>
@@ -1511,7 +1511,7 @@
     <t>Xupypr_y</t>
   </si>
   <si>
-    <t>6 ч. 6 мин. 34 сек.</t>
+    <t>6 ч. 06 мин. 34 сек.</t>
   </si>
   <si>
     <t>176–178</t>
@@ -1541,7 +1541,7 @@
     <t>Vovaldo</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 23 сек.</t>
+    <t>4 ч. 05 мин. 23 сек.</t>
   </si>
   <si>
     <t>180–181</t>
@@ -1565,7 +1565,7 @@
     <t>_600_</t>
   </si>
   <si>
-    <t>3 ч. 4 мин. 22 сек.</t>
+    <t>3 ч. 04 мин. 22 сек.</t>
   </si>
   <si>
     <t>183–184</t>
@@ -1610,7 +1610,7 @@
     <t>Natalochka</t>
   </si>
   <si>
-    <t>3 ч. 26 мин. 4 сек.</t>
+    <t>3 ч. 26 мин. 04 сек.</t>
   </si>
   <si>
     <t>189–190</t>
@@ -1619,7 +1619,7 @@
     <t>_Сайман_</t>
   </si>
   <si>
-    <t>2 ч. 26 мин. 3 сек.</t>
+    <t>2 ч. 26 мин. 03 сек.</t>
   </si>
   <si>
     <t>serg_omen</t>
@@ -1649,7 +1649,7 @@
     <t>Viktor_Animal</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 5 сек.</t>
+    <t>3 ч. 10 мин. 05 сек.</t>
   </si>
   <si>
     <t>Никсон</t>
@@ -1661,7 +1661,7 @@
     <t>XR7</t>
   </si>
   <si>
-    <t>6 ч. 31 мин. 0 сек.</t>
+    <t>6 ч. 31 мин. 00 сек.</t>
   </si>
   <si>
     <t>196–197</t>
@@ -1676,7 +1676,7 @@
     <t>АкунаМатата</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 5 сек.</t>
+    <t>3 ч. 49 мин. 05 сек.</t>
   </si>
   <si>
     <t>198</t>
@@ -1685,7 +1685,7 @@
     <t>Mask2017</t>
   </si>
   <si>
-    <t>4 ч. 56 мин. 5 сек.</t>
+    <t>4 ч. 56 мин. 05 сек.</t>
   </si>
   <si>
     <t>199–200</t>
@@ -1718,7 +1718,7 @@
     <t>_Жемчужинка_</t>
   </si>
   <si>
-    <t>4 ч. 2 мин. 37 сек.</t>
+    <t>4 ч. 02 мин. 37 сек.</t>
   </si>
   <si>
     <t>_Daemon_</t>
@@ -1739,7 +1739,7 @@
     <t>arthan</t>
   </si>
   <si>
-    <t>7 ч. 2 мин. 32 сек.</t>
+    <t>7 ч. 02 мин. 32 сек.</t>
   </si>
   <si>
     <t>206</t>
@@ -1775,7 +1775,7 @@
     <t>Nuria</t>
   </si>
   <si>
-    <t>5 ч. 57 мин. 5 сек.</t>
+    <t>5 ч. 57 мин. 05 сек.</t>
   </si>
   <si>
     <t>albertcoin</t>
@@ -1784,7 +1784,7 @@
     <t>lek30</t>
   </si>
   <si>
-    <t>5 ч. 2 мин. 33 сек.</t>
+    <t>5 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>212–213</t>
@@ -1793,7 +1793,7 @@
     <t>Рустамко</t>
   </si>
   <si>
-    <t>3 ч. 29 мин. 4 сек.</t>
+    <t>3 ч. 29 мин. 04 сек.</t>
   </si>
   <si>
     <t>Vet0chka</t>
@@ -1829,13 +1829,13 @@
     <t>glt198</t>
   </si>
   <si>
-    <t>5 ч. 0 мин. 31 сек.</t>
+    <t>5 ч. 00 мин. 31 сек.</t>
   </si>
   <si>
     <t>Sky-net</t>
   </si>
   <si>
-    <t>4 ч. 5 мин. 17 сек.</t>
+    <t>4 ч. 05 мин. 17 сек.</t>
   </si>
   <si>
     <t>SilverNeko</t>
@@ -1850,7 +1850,7 @@
     <t>bolgarinpavel</t>
   </si>
   <si>
-    <t>3 ч. 34 мин. 0 сек.</t>
+    <t>3 ч. 34 мин. 00 сек.</t>
   </si>
   <si>
     <t>PROcent</t>
@@ -1880,7 +1880,7 @@
     <t>Шмакодявка</t>
   </si>
   <si>
-    <t>6 ч. 9 мин. 45 сек.</t>
+    <t>6 ч. 09 мин. 45 сек.</t>
   </si>
   <si>
     <t>225</t>
@@ -1898,7 +1898,7 @@
     <t>Wassja</t>
   </si>
   <si>
-    <t>3 ч. 8 мин. 27 сек.</t>
+    <t>3 ч. 08 мин. 27 сек.</t>
   </si>
   <si>
     <t>227</t>
@@ -1916,7 +1916,7 @@
     <t>MedLya112</t>
   </si>
   <si>
-    <t>4 ч. 15 мин. 0 сек.</t>
+    <t>4 ч. 15 мин. 00 сек.</t>
   </si>
   <si>
     <t>229–230</t>
@@ -1931,7 +1931,7 @@
     <t>_ulanochka</t>
   </si>
   <si>
-    <t>4 ч. 0 мин. 59 сек.</t>
+    <t>4 ч. 00 мин. 59 сек.</t>
   </si>
   <si>
     <t>231–232</t>
@@ -1991,7 +1991,7 @@
     <t>тощий_кабан</t>
   </si>
   <si>
-    <t>3 ч. 5 мин. 45 сек.</t>
+    <t>3 ч. 05 мин. 45 сек.</t>
   </si>
   <si>
     <t>239</t>
@@ -2009,7 +2009,7 @@
     <t>Annabeth</t>
   </si>
   <si>
-    <t>3 ч. 10 мин. 6 сек.</t>
+    <t>3 ч. 10 мин. 06 сек.</t>
   </si>
   <si>
     <t>241</t>
@@ -2027,7 +2027,7 @@
     <t>pa26</t>
   </si>
   <si>
-    <t>4 ч. 6 мин. 55 сек.</t>
+    <t>4 ч. 06 мин. 55 сек.</t>
   </si>
   <si>
     <t>243–244</t>
@@ -2057,7 +2057,7 @@
     <t>sneg_jr</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 33 сек.</t>
+    <t>2 ч. 02 мин. 33 сек.</t>
   </si>
   <si>
     <t>247–248</t>
@@ -2093,13 +2093,13 @@
     <t>madinko</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 9 сек.</t>
+    <t>2 ч. 02 мин. 09 сек.</t>
   </si>
   <si>
     <t>машина</t>
   </si>
   <si>
-    <t>2 ч. 23 мин. 8 сек.</t>
+    <t>2 ч. 23 мин. 08 сек.</t>
   </si>
   <si>
     <t>253–254</t>
@@ -2108,13 +2108,13 @@
     <t>YuranTM</t>
   </si>
   <si>
-    <t>3 ч. 9 мин. 16 сек.</t>
+    <t>3 ч. 09 мин. 16 сек.</t>
   </si>
   <si>
     <t>Атата</t>
   </si>
   <si>
-    <t>3 ч. 7 мин. 42 сек.</t>
+    <t>3 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>255</t>
@@ -2141,7 +2141,7 @@
     <t>Galaad</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 33 сек.</t>
+    <t>2 ч. 07 мин. 33 сек.</t>
   </si>
   <si>
     <t>Сонь</t>
@@ -2180,7 +2180,7 @@
     <t>Nadusha12</t>
   </si>
   <si>
-    <t>8 ч. 5 мин. 53 сек.</t>
+    <t>8 ч. 05 мин. 53 сек.</t>
   </si>
   <si>
     <t>263–265</t>
@@ -2189,13 +2189,13 @@
     <t>Гонибалл</t>
   </si>
   <si>
-    <t>4 ч. 34 мин. 1 сек.</t>
+    <t>4 ч. 34 мин. 01 сек.</t>
   </si>
   <si>
     <t>NDancer</t>
   </si>
   <si>
-    <t>2 ч. 42 мин. 9 сек.</t>
+    <t>2 ч. 42 мин. 09 сек.</t>
   </si>
   <si>
     <t>Berillio</t>
@@ -2210,7 +2210,7 @@
     <t>Клавишник</t>
   </si>
   <si>
-    <t>2 ч. 46 мин. 7 сек.</t>
+    <t>2 ч. 46 мин. 07 сек.</t>
   </si>
   <si>
     <t>267</t>
@@ -2228,13 +2228,13 @@
     <t>Старец</t>
   </si>
   <si>
-    <t>2 ч. 47 мин. 1 сек.</t>
+    <t>2 ч. 47 мин. 01 сек.</t>
   </si>
   <si>
     <t>Rogzard</t>
   </si>
   <si>
-    <t>5 ч. 1 мин. 13 сек.</t>
+    <t>5 ч. 01 мин. 13 сек.</t>
   </si>
   <si>
     <t>Thrust_SSC</t>
@@ -2270,13 +2270,13 @@
     <t>ANchY2J</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 48 сек.</t>
+    <t>3 ч. 06 мин. 48 сек.</t>
   </si>
   <si>
     <t>amt</t>
   </si>
   <si>
-    <t>2 ч. 59 мин. 5 сек.</t>
+    <t>2 ч. 59 мин. 05 сек.</t>
   </si>
   <si>
     <t>276</t>
@@ -2300,7 +2300,7 @@
     <t>Vi2GaN</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 6 сек.</t>
+    <t>3 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>Lakira</t>
@@ -2345,7 +2345,7 @@
     <t>Zippin</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 43 сек.</t>
+    <t>2 ч. 02 мин. 43 сек.</t>
   </si>
   <si>
     <t>285–287</t>
@@ -2375,13 +2375,13 @@
     <t>Геос</t>
   </si>
   <si>
-    <t>4 ч. 4 мин. 48 сек.</t>
+    <t>4 ч. 04 мин. 48 сек.</t>
   </si>
   <si>
     <t>NeviD</t>
   </si>
   <si>
-    <t>2 ч. 11 мин. 2 сек.</t>
+    <t>2 ч. 11 мин. 02 сек.</t>
   </si>
   <si>
     <t>290</t>
@@ -2411,7 +2411,7 @@
     <t>Chedi</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 41 сек.</t>
+    <t>2 ч. 03 мин. 41 сек.</t>
   </si>
   <si>
     <t>Велимира</t>
@@ -2423,7 +2423,7 @@
     <t>Ann_13</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 14 сек.</t>
+    <t>3 ч. 01 мин. 14 сек.</t>
   </si>
   <si>
     <t>gornostay</t>
@@ -2450,7 +2450,7 @@
     <t>alanen</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 39 сек.</t>
+    <t>2 ч. 02 мин. 39 сек.</t>
   </si>
   <si>
     <t>300–304</t>
@@ -2465,7 +2465,7 @@
     <t>Френдли</t>
   </si>
   <si>
-    <t>2 ч. 38 мин. 3 сек.</t>
+    <t>2 ч. 38 мин. 03 сек.</t>
   </si>
   <si>
     <t>Yuron_19</t>
@@ -2477,13 +2477,13 @@
     <t>_sorriso_</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 35 сек.</t>
+    <t>2 ч. 03 мин. 35 сек.</t>
   </si>
   <si>
     <t>Леоня</t>
   </si>
   <si>
-    <t>1 ч. 50 мин. 7 сек.</t>
+    <t>1 ч. 50 мин. 07 сек.</t>
   </si>
   <si>
     <t>305–306</t>
@@ -2492,7 +2492,7 @@
     <t>tinto</t>
   </si>
   <si>
-    <t>2 ч. 56 мин. 8 сек.</t>
+    <t>2 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>vulp</t>
@@ -2513,7 +2513,7 @@
     <t>ckandy</t>
   </si>
   <si>
-    <t>2 ч. 55 мин. 1 сек.</t>
+    <t>2 ч. 55 мин. 01 сек.</t>
   </si>
   <si>
     <t>leonis2010</t>
@@ -2540,13 +2540,13 @@
     <t>Валацуга</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 51 сек.</t>
+    <t>2 ч. 03 мин. 51 сек.</t>
   </si>
   <si>
     <t>Командир</t>
   </si>
   <si>
-    <t>2 ч. 16 мин. 5 сек.</t>
+    <t>2 ч. 16 мин. 05 сек.</t>
   </si>
   <si>
     <t>Meliorius</t>
@@ -2576,7 +2576,7 @@
     <t>SEFER</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 19 сек.</t>
+    <t>2 ч. 00 мин. 19 сек.</t>
   </si>
   <si>
     <t>318</t>
@@ -2594,7 +2594,7 @@
     <t>svetophor</t>
   </si>
   <si>
-    <t>3 ч. 49 мин. 8 сек.</t>
+    <t>3 ч. 49 мин. 08 сек.</t>
   </si>
   <si>
     <t>320–321</t>
@@ -2618,7 +2618,7 @@
     <t>чебупеля</t>
   </si>
   <si>
-    <t>3 ч. 3 мин. 50 сек.</t>
+    <t>3 ч. 03 мин. 50 сек.</t>
   </si>
   <si>
     <t>romashka_raz</t>
@@ -2678,7 +2678,7 @@
     <t>Holly_Maggie</t>
   </si>
   <si>
-    <t>2 ч. 2 мин. 58 сек.</t>
+    <t>2 ч. 02 мин. 58 сек.</t>
   </si>
   <si>
     <t>332–335</t>
@@ -2687,13 +2687,13 @@
     <t>Traumstaub</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 50 сек.</t>
+    <t>2 ч. 01 мин. 50 сек.</t>
   </si>
   <si>
     <t>stag_</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 3 сек.</t>
+    <t>2 ч. 07 мин. 03 сек.</t>
   </si>
   <si>
     <t>Trafalgar_Law</t>
@@ -2705,7 +2705,7 @@
     <t>azukun</t>
   </si>
   <si>
-    <t>2 ч. 0 мин. 8 сек.</t>
+    <t>2 ч. 00 мин. 08 сек.</t>
   </si>
   <si>
     <t>336–337</t>
@@ -2729,7 +2729,7 @@
     <t>Соточка</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 17 сек.</t>
+    <t>3 ч. 06 мин. 17 сек.</t>
   </si>
   <si>
     <t>339–342</t>
@@ -2756,7 +2756,7 @@
     <t>doklls</t>
   </si>
   <si>
-    <t>2 ч. 3 мин. 43 сек.</t>
+    <t>2 ч. 03 мин. 43 сек.</t>
   </si>
   <si>
     <t>343–346</t>
@@ -2765,13 +2765,13 @@
     <t>forward-ok</t>
   </si>
   <si>
-    <t>3 ч. 6 мин. 35 сек.</t>
+    <t>3 ч. 06 мин. 35 сек.</t>
   </si>
   <si>
     <t>JPM</t>
   </si>
   <si>
-    <t>1 ч. 49 мин. 6 сек.</t>
+    <t>1 ч. 49 мин. 06 сек.</t>
   </si>
   <si>
     <t>Doxly</t>
@@ -2798,7 +2798,7 @@
     <t>Slavik89</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 42 сек.</t>
+    <t>2 ч. 07 мин. 42 сек.</t>
   </si>
   <si>
     <t>Michelik</t>
@@ -2819,7 +2819,7 @@
     <t>Just_so_Lex</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 23 сек.</t>
+    <t>2 ч. 07 мин. 23 сек.</t>
   </si>
   <si>
     <t>kubikrubika</t>
@@ -2837,7 +2837,7 @@
     <t>mairabek</t>
   </si>
   <si>
-    <t>3 ч. 13 мин. 7 сек.</t>
+    <t>3 ч. 13 мин. 07 сек.</t>
   </si>
   <si>
     <t>puton</t>
@@ -2912,7 +2912,7 @@
     <t>zdanhik</t>
   </si>
   <si>
-    <t>5 ч. 6 мин. 13 сек.</t>
+    <t>5 ч. 06 мин. 13 сек.</t>
   </si>
   <si>
     <t>a_mikhaylov</t>
@@ -2936,7 +2936,7 @@
     <t>GalaGale</t>
   </si>
   <si>
-    <t>2 ч. 1 мин. 28 сек.</t>
+    <t>2 ч. 01 мин. 28 сек.</t>
   </si>
   <si>
     <t>370–372</t>
@@ -2945,7 +2945,7 @@
     <t>nikmaron</t>
   </si>
   <si>
-    <t>4 ч. 43 мин. 5 сек.</t>
+    <t>4 ч. 43 мин. 05 сек.</t>
   </si>
   <si>
     <t>Тираэль</t>
@@ -2981,7 +2981,7 @@
     <t>Биолог467</t>
   </si>
   <si>
-    <t>3 ч. 56 мин. 8 сек.</t>
+    <t>3 ч. 56 мин. 08 сек.</t>
   </si>
   <si>
     <t>376–379</t>
@@ -2990,7 +2990,7 @@
     <t>NineFingers</t>
   </si>
   <si>
-    <t>2 ч. 6 мин. 20 сек.</t>
+    <t>2 ч. 06 мин. 20 сек.</t>
   </si>
   <si>
     <t>moonwwwind</t>
@@ -3017,19 +3017,19 @@
     <t>VQV</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 38 сек.</t>
+    <t>3 ч. 01 мин. 38 сек.</t>
   </si>
   <si>
     <t>inexpert</t>
   </si>
   <si>
-    <t>2 ч. 7 мин. 51 сек.</t>
+    <t>2 ч. 07 мин. 51 сек.</t>
   </si>
   <si>
     <t>Bobreogen</t>
   </si>
   <si>
-    <t>1 ч. 34 мин. 8 сек.</t>
+    <t>1 ч. 34 мин. 08 сек.</t>
   </si>
   <si>
     <t>Mmaark</t>
@@ -3041,7 +3041,7 @@
     <t>клавоинка</t>
   </si>
   <si>
-    <t>2 ч. 8 мин. 43 сек.</t>
+    <t>2 ч. 08 мин. 43 сек.</t>
   </si>
   <si>
     <t>385–389</t>
@@ -3104,7 +3104,7 @@
     <t>adocs</t>
   </si>
   <si>
-    <t>2 ч. 12 мин. 0 сек.</t>
+    <t>2 ч. 12 мин. 00 сек.</t>
   </si>
   <si>
     <t>395</t>
@@ -3134,7 +3134,7 @@
     <t>Tahion</t>
   </si>
   <si>
-    <t>1 ч. 23 мин. 1 сек.</t>
+    <t>1 ч. 23 мин. 01 сек.</t>
   </si>
   <si>
     <t>Тебятожка</t>
@@ -3191,7 +3191,7 @@
     <t>Romario100</t>
   </si>
   <si>
-    <t>2 ч. 9 мин. 37 сек.</t>
+    <t>2 ч. 09 мин. 37 сек.</t>
   </si>
   <si>
     <t>МОТОРНЫЙ</t>
@@ -3245,7 +3245,7 @@
     <t>dogs_life</t>
   </si>
   <si>
-    <t>1 ч. 45 мин. 9 сек.</t>
+    <t>1 ч. 45 мин. 09 сек.</t>
   </si>
   <si>
     <t>iBumble</t>
@@ -3263,7 +3263,7 @@
     <t>Zettabyte</t>
   </si>
   <si>
-    <t>2 ч. 5 мин. 20 сек.</t>
+    <t>2 ч. 05 мин. 20 сек.</t>
   </si>
   <si>
     <t>L_E_O</t>
@@ -3275,7 +3275,7 @@
     <t>ikim_online</t>
   </si>
   <si>
-    <t>3 ч. 1 мин. 33 сек.</t>
+    <t>3 ч. 01 мин. 33 сек.</t>
   </si>
   <si>
     <t>Ваньсон</t>
